--- a/product.xlsx
+++ b/product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>href</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,22 +466,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-57 I5165SGN (NH.QBWER.005)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+          <t>С35 4 128Gb</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>135608212</t>
+          <t>111864727</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135608212/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/111864727/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,22 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-45 R585SGN</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+          <t>Смартфон Reno7 8+128 Гб</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>134165151</t>
+          <t>116872733</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/134165151/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/116872733/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -507,22 +518,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ноутбук Aspire 7 A715-51G [NH.QHUER.003]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+          <t>10 4G 8 256Gb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>138568366</t>
+          <t>123837570</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/138568366/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/123837570/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -530,22 +544,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-58 (NH.QFMER.006)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+          <t>Смартфон А17k 3+64 Гб</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>137881020</t>
+          <t>127005148</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137881020/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/127005148/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -553,22 +570,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ноутбук IdeaPad 3 15IGL05</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
+          <t>Смартфон Redmi 9A 2GB+32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>143778483</t>
+          <t>13615125</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/143778483/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/13615125/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -576,22 +596,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MacBook Air 13 M2 8 256 (Space Grey)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
+          <t>Galaxy S23 5G 256GB</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>105264437</t>
+          <t>145448211</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/105264437/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/145448211/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -599,22 +622,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-57 I785SGN (NH.QELER.005)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+          <t>Смартфон Y35 4GB 128GB</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VIVO</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>134131268</t>
+          <t>121010316</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/134131268/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/121010316/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -622,22 +648,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ноутбук Aspire 7 A715-51G (NH.QGDER.004)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+          <t>Galaxy A23 64GB</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>137884454</t>
+          <t>137899938</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137884454/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/137899938/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -645,22 +674,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ноутбук G5 GE [GE-51RU263SD] 15.6" FHD RTX 3050</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>7</v>
+          <t>Смартфон Redmi Note 10 Pro 6GB+64GB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>146355649</t>
+          <t>141016746</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146355649/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/141016746/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -668,22 +700,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ноутбук Vivobook M1603QA-MB224 [90NB0Y81-M00DD0]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
+          <t>9 4G 8 128Gb</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>145286466</t>
+          <t>123764974</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145286466/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/123764974/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -691,22 +726,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ноутбук 81VU00H3RU(Celeron 14 128Гб 4Гб UMA W11)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
+          <t>nova 10 SE 128 ГБ 108 МП 4500 мА*ч</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>141117591</t>
+          <t>139633699</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/141117591/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/139633699/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,22 +752,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ноутбук 15s-fq5029ci (6J5Y0EA)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
+          <t>Galaxy S20 FE 128GB</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>137868907</t>
+          <t>113254272</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137868907/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/113254272/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -737,22 +778,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inbook XL23 14 i3 8GB 256GB</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
+          <t>Смартфон iPhone 14 Pro Max 128GB MQ983J A Gold</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>123401708</t>
+          <t>139941428</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/123401708/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/139941428/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -760,22 +804,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MacBook Pro 16 M2 Max 32 1 (Space Grey)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
+          <t>Смартфон iPhone XS 256GB</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>146572252</t>
+          <t>144571274</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146572252/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/144571274/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -783,22 +830,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M2 Pro 32 1 (Silver)</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
+          <t>Apple Iphone X 64 "Как новый"</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NoName</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>146572250</t>
+          <t>104038232</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146572250/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/104038232/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -806,22 +856,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN517-42 (NH.QG4ER.009)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+          <t>Смартфон 30SE 4 128Gb Glacial Blue</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>137881294</t>
+          <t>95749440</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137881294/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/95749440/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -829,22 +882,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion x360 14-ek0017ci (6G829EA)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>8</v>
+          <t>Смартфон Redmi 9A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>137865424</t>
+          <t>103006549</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137865424/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/103006549/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -852,22 +908,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ноутбук X515EA-BQ970 [90NB0TY2-M02ZN0]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
+          <t>Смартфон Redmi Note 11S 6GB 128GB 6.43" 1080 x 2400 108 МП+8…</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>145282819</t>
+          <t>72283730</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145282819/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/72283730/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -875,22 +934,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ноутбук AZ-1505 15.6" 4x2.0GHz 12Gb 512Gb</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
+          <t>Смартфон Redmi Note 10 Pro 6GB+64GB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89111071</t>
+          <t>144465363</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/89111071/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/144465363/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -898,22 +960,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-46 R5165SGN (NH.QGXER.005)</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+          <t>C40 3 GB+32 GB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>POCO</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>134133715</t>
+          <t>114714657</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/134133715/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/114714657/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -921,22 +986,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M2 Pro 16 512 (Space Grey)</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
+          <t>С35 4 128Gb</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>146572255</t>
+          <t>111864728</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146572255/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/111864728/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -944,22 +1012,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ноутбук 15'6 16+512 SSD IPS 2560x1440</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>6</v>
+          <t>Смартфон А17 4+64 Гб</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>118989389</t>
+          <t>126920776</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/118989389/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/126920776/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -967,22 +1038,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ноутбук Swift 3 SF316-51-79JK NX.ABDER.00H</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+          <t>Смартфон А57s 4+128 Гб</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>135941675</t>
+          <t>126963665</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135941675/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/126963665/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -990,22 +1064,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion 15-eh2051ci [6M876EA]</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>8</v>
+          <t>10 4G 4 128Gb</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>135939866</t>
+          <t>123832380</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135939866/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/123832380/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1013,22 +1090,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MacBook Pro 16 M1 Pro 16 512 (Space Grey)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
+          <t>Смартфон NOTE 12 VIP 8+256GB</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Infinix</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>105264443</t>
+          <t>121002311</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/105264443/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/121002311/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1036,22 +1116,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ноутбук Omen by 16-c0045ur 16.1 FHD IPS (4E1R9EA)</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>8</v>
+          <t>Смартфон Redmi 10C 4GB 64GB</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>137858689</t>
+          <t>75665277</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137858689/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/75665277/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1059,22 +1142,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ноутбук 82KU01W3RK(R3 15,6 1Тб 4Гб UMA noOS)</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>12</v>
+          <t>Смартфон Redmi 10 2022 4GB 64GB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>138861242</t>
+          <t>87256670</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/138861242/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/87256670/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1082,22 +1168,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ноутбук 14" EVE C414 Celeron N4020 4Гб eMMC64Гб W10HSL</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>5</v>
+          <t>narzo 50i prime 4 64Gb</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>119897982</t>
+          <t>141022944</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/119897982/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/141022944/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1105,22 +1194,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M2 Pro 32 1 (Space Grey)</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
+          <t>Смартфон Redmi 9A RU 2+32 Glacial Blue</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>146572249</t>
+          <t>120292055</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146572249/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/120292055/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1128,22 +1220,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ноутбук 90NB0W43-M003U0(Pentium 14 256Гб 8Гб UMA W11)</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3</v>
+          <t>Galaxy A23 128GB</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>102185254</t>
+          <t>105851576</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/102185254/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/105851576/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1151,22 +1246,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ноутбук AERO 17 XE5 [AERO 17 XE5-73RU744JP]</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>7</v>
+          <t>Смартфон POCO X5 5G 8GB+256GB</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>139011609</t>
+          <t>142809108</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/139011609/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/142809108/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1174,22 +1272,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ноутбук UX5401EA-KN146W</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
+          <t>Смартфон А57s 4+64 Гб</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>126815382</t>
+          <t>126066982</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/126815382/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/126066982/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1197,22 +1298,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-46 (NH.QGZER.009)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
+          <t>iPhone 13 128GB (Global)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>137880348</t>
+          <t>141316027</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137880348/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/141316027/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1220,22 +1324,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ноутбук NX.EG9ER.033(3050U 15,6 256Гб 4Гб UMA noOS)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
+          <t>Смартфон X4 Pro 5G 6GB+128GB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>POCO</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>104211411</t>
+          <t>67865980</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104211411/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/67865980/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1243,22 +1350,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MacBook Air 13 M2 8 ГБ 256 Гб RU 2022 Silver</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
+          <t>С35 4 64Gb</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>105264439</t>
+          <t>111864107</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/105264439/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/111864107/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1266,22 +1376,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ноутбук Zenbook S 13 OLED UM5302TA-LX384W 13.3" Touch</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
+          <t>Смартфон V25e 8GB 128GB</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>VIVO</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>138753128</t>
+          <t>121026731</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/138753128/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/121026731/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1289,22 +1402,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion 14-ec1021ci 14" (6M870EA)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>8</v>
+          <t>Смартфон 5 8 128GB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Black Shark</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>137859925</t>
+          <t>124815083</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137859925/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/124815083/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1312,22 +1428,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion x360 14-ek0018ci 14 (6G7U2EA)</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>8</v>
+          <t>Смартфон Redmi 10 2022 4GB 64GB</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>137866239</t>
+          <t>115084670</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137866239/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/115084670/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1335,22 +1454,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ноутбук TUF Gaming F17 FX706HE-HX010 [90NR0713-M00990]</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>3</v>
+          <t>narzo 50i prime 3 32Gb</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Realme</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>144667160</t>
+          <t>141021464</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/144667160/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/141021464/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1358,22 +1480,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ноутбук Vivobook M1603QA-MB219 [90NB0Y81-M00CW0]</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3</v>
+          <t>Смартфон Pixel 6A 6 128Gb US Version</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>145285910</t>
+          <t>137366070</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145285910/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/137366070/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1381,22 +1506,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ноутбук 15.6" EVE 15 P417 Celeron N4000 8Gb SSD256Gb W11H</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
+          <t>Смартфон Samsung Galaxy S10 8 128 ГБ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>мир гаджетов</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>145954581</t>
+          <t>146908910</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145954581/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/146908910/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1404,22 +1532,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ноутбук AERO 17 XE5</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>7</v>
+          <t>Смартфон Samsung Galaxy Note 10 8 256 ГБ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>мир гаджетов</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>139308229</t>
+          <t>148468569</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/139308229/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/148468569/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1427,22 +1558,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MacBook Pro 16 M1 Max 32 1 (Silver)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
+          <t>Смартфон Pixel 6A 6 128Gb JP Version</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>142935043</t>
+          <t>141293412</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/142935043/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/141293412/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1450,22 +1584,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ноутбук 15.6" EVE 15 P417 Celeron N4000 8Gb SSD256Gb W11H</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>5</v>
+          <t>Смартфон Pixel 6A 6 128Gb US Version</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>135729670</t>
+          <t>137358498</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135729670/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/137358498/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1473,22 +1610,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ноутбук Aspire 5 A515-56-319R [NX.A1GER.003] 15.6" noOS</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
+          <t>Смартфон Galaxy A53 5G 8 256Gb</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>104148457</t>
+          <t>100043676</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104148457/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/100043676/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1496,22 +1636,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion Aero 13-be1020ci 13.3 (6M868EA)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>8</v>
+          <t>Смартфон Pixel 6A 6 128Gb US Version</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>137863650</t>
+          <t>137366073</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137863650/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/137366073/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1519,22 +1662,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ноутбук Legion 5 Pro 16ACH6H WQXGA (82RG0099RK)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>12</v>
+          <t>Смартфон Samsung Galaxy S8+ 4 64 ГБ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>мир гаджетов</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>137869970</t>
+          <t>146464582</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137869970/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/146464582/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1542,22 +1688,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ноутбук IdeaPad Gaming 3 15IHU6 15.6" [82K100EERK]</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>12</v>
+          <t>Смартфон Pixel 6A 6 128Gb US Version</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>135946842</t>
+          <t>137359921</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135946842/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/137359921/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1565,22 +1714,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ноутбук Swift X SFX-16-51G (NX.AYLER.001)</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
+          <t>Смартфон 9C 3 64Gb (NFC) RU</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Redmi</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>137885951</t>
+          <t>133010674</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137885951/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/133010674/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1588,987 +1740,2232 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ноутбук 82KU009JRK(R3 15,6 8Гб UMA DOS)</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>12</v>
+          <t>Смартфон Samsung Galaxy S21 Ultra 12 128ГБ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>мир гаджетов</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>138860807</t>
+          <t>148865032</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/138860807/detail.aspx</t>
-        </is>
-      </c>
+          <t>https://www.wildberries.ru/catalog/148865032/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ноутбук ThinkBook 15 G3 ACL 8 256 ГБ</t>
+          <t>Ноутбук Nitro 5 AN515-57 I5165SGN (NH.QBWER.005)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>139708493</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>135608212</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/139708493/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/135608212/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15 6" Notebook Intel Celeron N5095 2 0 GHz 16GB SSD 256Gb</t>
+          <t>Ноутбук Nitro 5 AN515-45 R585SGN</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>149388920</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>134165151</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/149388920/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/134165151/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ноутбук Pro Fortis M i5 10210U 8Gb SSD512Gb 15.6" W11ProML64</t>
+          <t>Ноутбук Aspire 7 A715-51G [NH.QHUER.003]</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>146264496</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>138568366</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146264496/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/138568366/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion 15-eh2037ci [6M874EA]</t>
+          <t>Ноутбук Nitro 5 AN515-58 (NH.QFMER.006)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>137855262</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>137881020</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137855262/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137881020/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ноутбук 14" EVE C414 A9 9400 4Гб SSD128Гб R5 W10H</t>
+          <t>Ноутбук IdeaPad 3 15IGL05</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>139752074</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="D56" t="n">
+        <v>143778483</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/139752074/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/143778483/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ноутбук Vivobook Pro15 M6500QC-HN118 [90NB0YN1-M006N0]</t>
+          <t>MacBook Air 13 M2 8 256 (Space Grey)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>145279781</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>105264437</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145279781/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/105264437/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ноутбук EVE 15 P417 15.6" Pentium N5030 8Gb SSD256Gb W11</t>
+          <t>Ноутбук Nitro 5 AN515-57 I785SGN (NH.QELER.005)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>135729672</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>134131268</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135729672/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/134131268/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ноутбук EVE 14 C414, 14.1", IPS, Celeron N4020 1.1ГГц, 4ГБ</t>
+          <t>Ноутбук Aspire 7 A715-51G (NH.QGDER.004)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>119966104</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>137884454</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/119966104/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137884454/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ноутбук TUF Gaming F15 FX506HM-HN016</t>
+          <t>Ноутбук G5 GE [GE-51RU263SD] 15.6" FHD RTX 3050</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>140761329</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>146355649</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/140761329/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/146355649/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ноутбук Predator Triton PT516-52S (NH.QFQER.002)</t>
+          <t>Ноутбук Vivobook M1603QA-MB224 [90NB0Y81-M00DD0]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>137886708</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>145286466</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137886708/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/145286466/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-45-R5SJ [NH.QBRER.006] R7 noOS</t>
+          <t>Ноутбук 81VU00H3RU(Celeron 14 128Гб 4Гб UMA W11)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>104251141</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="D62" t="n">
+        <v>141117591</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104251141/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/141117591/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ноутбук IdeaPad 3 15ALC6 (82RN00BJRK)</t>
+          <t>Ноутбук 15s-fq5029ci (6J5Y0EA)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>137876974</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>137868907</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137876974/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137868907/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M1 Pro 16 512 (Space Grey)</t>
+          <t>Inbook XL23 14 i3 8GB 256GB</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>149781988</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="D64" t="n">
+        <v>123401708</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/149781988/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/123401708/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ноутбук MateBook D15 [BoM-WDQ9B]</t>
+          <t>MacBook Pro 16 M2 Max 32 1 (Space Grey)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>135711823</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>146572252</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135711823/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/146572252/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M1 Pro 16 512 (Silver)</t>
+          <t>MacBook Pro 14 M2 Pro 32 1 (Silver)</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>149814065</t>
-        </is>
+      <c r="D66" t="n">
+        <v>146572250</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/149814065/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/146572250/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ноутбук Victus 15-fa0032ci (799A5EA)</t>
+          <t>Ноутбук Nitro 5 AN517-42 (NH.QG4ER.009)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>145288879</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>137881294</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145288879/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137881294/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ноутбук Nitro 5 AN515-57</t>
+          <t>Ноутбук Pavilion x360 14-ek0017ci (6G829EA)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>139308235</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>137865424</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/139308235/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137865424/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MacBook Air 13 M2 8 512 (Starlight)</t>
+          <t>Ноутбук X515EA-BQ970 [90NB0TY2-M02ZN0]</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>149785824</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>145282819</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/149785824/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/145282819/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ноутбук Victus 15-fb0030ci 15.6" 16 GB [6M877EA]</t>
+          <t>Ноутбук AZ-1505 15.6" 4x2.0GHz 12Gb 512Gb</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>135723311</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>89111071</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135723311/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/89111071/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ноутбук Swift 3 SF314-43 [NX.AB1ER.00E]</t>
+          <t>Ноутбук Nitro 5 AN515-46 R5165SGN (NH.QGXER.005)</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>135936674</t>
-        </is>
+      <c r="D71" t="n">
+        <v>134133715</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135936674/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/134133715/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ноутбук AZ-1702 17.3" 4x2GHz 12Gb 1Tb</t>
+          <t>MacBook Pro 14 M2 Pro 16 512 (Space Grey)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>147674348</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>146572255</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/147674348/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/146572255/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ноутбук V17-IIL</t>
+          <t>Ноутбук 15'6 16+512 SSD IPS 2560x1440</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>134616135</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>118989389</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/134616135/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/118989389/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ноутбук Aspire A315-34-C34A</t>
+          <t>Ноутбук Swift 3 SF316-51-79JK NX.ABDER.00H</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>104180100</t>
-        </is>
+      <c r="D74" t="n">
+        <v>135941675</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104180100/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/135941675/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M1 Pro 16 ГБ 512 Гб UK</t>
+          <t>Ноутбук Pavilion 15-eh2051ci [6M876EA]</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>116669072</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>135939866</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/116669072/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/135939866/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ноутбук NX.EG8ER.010(i3 15,6 1Тб 4Гб UMA noOS)</t>
+          <t>MacBook Pro 16 M1 Pro 16 512 (Space Grey)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>104234467</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>105264443</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104234467/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/105264443/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ноутбук 14" EVE C414 Celeron N3350 4Гб eMMC128Гб W10HSL</t>
+          <t>Ноутбук Omen by 16-c0045ur 16.1 FHD IPS (4E1R9EA)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>135729671</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>137858689</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/135729671/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137858689/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MacBook Pro 13 M1 8 ГБ 256 Гб US (2020)</t>
+          <t>Ноутбук 82KU01W3RK(R3 15,6 1Тб 4Гб UMA noOS)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>119268350</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="D78" t="n">
+        <v>138861242</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/119268350/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/138861242/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ноутбук Pavilion 14-dv1005ur 14 i5 16Gb 512Gb [6M869EA]</t>
+          <t>Ноутбук 14" EVE C414 Celeron N4020 4Гб eMMC64Гб W10HSL</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>137854242</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>119897982</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137854242/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/119897982/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ноутбук Predator Helios 300 PH315-54 [NH.QC2ER.007]</t>
+          <t>MacBook Pro 14 M2 Pro 32 1 (Space Grey)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>104250423</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>146572249</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104250423/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/146572249/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ноутбук NX.EG9ER.01R(3050U 15,6 1Тб 4Гб UMA noOS)</t>
+          <t>Ноутбук 90NB0W43-M003U0(Pentium 14 256Гб 8Гб UMA W11)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>104276165</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>102185254</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104276165/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/102185254/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ноутбук Victus 16-e1050ci 16.1 FHD RTX 3060 [6M882EA]</t>
+          <t>Ноутбук AERO 17 XE5 [AERO 17 XE5-73RU744JP]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>137865002</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>139011609</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137865002/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/139011609/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ноутбук 15s-fq5045ci 15.6 i5 8Gb 512Gb (6K3C4EA)</t>
+          <t>Ноутбук UX5401EA-KN146W</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>137868156</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>126815382</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/137868156/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/126815382/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MacBook Pro 16 M1 Max 32 1 (Space Grey)</t>
+          <t>Ноутбук Nitro 5 AN515-46 (NH.QGZER.009)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>142933310</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>137880348</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/142933310/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137880348/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ноутбук Pro Fortis M i3 10110U 8Gb SSD512Gb 15.6" W11ProML64</t>
+          <t>Ноутбук NX.EG9ER.033(3050U 15,6 256Гб 4Гб UMA noOS)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>146258301</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>104211411</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/146258301/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/104211411/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MacBook Air 13 M2 8 512 (Silver)</t>
+          <t>MacBook Air 13 M2 8 ГБ 256 Гб RU 2022 Silver</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>99060313</t>
-        </is>
+      <c r="D86" t="n">
+        <v>105264439</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/99060313/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/105264439/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ноутбук Maxbook P1X 512 Gb 12 Gb</t>
+          <t>Ноутбук Zenbook S 13 OLED UM5302TA-LX384W 13.3" Touch</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>92107920</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>138753128</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/92107920/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/138753128/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ноутбук IdeaPad 1 14IGL05</t>
+          <t>Ноутбук Pavilion 14-ec1021ci 14" (6M870EA)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>143778484</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>137859925</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/143778484/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137859925/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ноутбук Laptop X515JA-BQ2024W [90NB0SR1-M02PX0]</t>
+          <t>Ноутбук Pavilion x360 14-ek0018ci 14 (6G7U2EA)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>138974634</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>137866239</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/138974634/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/137866239/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MacBook Pro 16 M1 Max 32 1 (Silver)</t>
+          <t>Ноутбук TUF Gaming F17 FX706HE-HX010 [90NR0713-M00990]</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>142935534</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>144667160</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/142935534/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/144667160/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ноутбук A315-35-P8RP [NX.A6LER.00N] 15.6 noOS</t>
+          <t>Ноутбук Vivobook M1603QA-MB219 [90NB0Y81-M00CW0]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>104288888</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>145285910</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/104288888/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/145285910/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ноутбук TUF Dash F15 FX517ZM-HN093 [90NR09Q3-M007B0]</t>
+          <t>Ноутбук 15.6" EVE 15 P417 Celeron N4000 8Gb SSD256Gb W11H</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>144678873</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>145954581</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/144678873/detail.aspx</t>
-        </is>
+          <t>https://www.wildberries.ru/catalog/145954581/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ноутбук AERO 17 XE5</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>139308229</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/139308229/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MacBook Pro 16 M1 Max 32 1 (Silver)</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>142935043</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/142935043/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Ноутбук 15.6" EVE 15 P417 Celeron N4000 8Gb SSD256Gb W11H</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>135729670</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135729670/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ноутбук Aspire 5 A515-56-319R [NX.A1GER.003] 15.6" noOS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>104148457</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104148457/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Ноутбук Pavilion Aero 13-be1020ci 13.3 (6M868EA)</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>137863650</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137863650/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ноутбук Legion 5 Pro 16ACH6H WQXGA (82RG0099RK)</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>137869970</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137869970/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ноутбук IdeaPad Gaming 3 15IHU6 15.6" [82K100EERK]</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>135946842</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135946842/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Ноутбук Swift X SFX-16-51G (NX.AYLER.001)</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>137885951</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137885951/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ноутбук 82KU009JRK(R3 15,6 8Гб UMA DOS)</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>12</v>
+      </c>
+      <c r="D101" t="n">
+        <v>138860807</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138860807/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Ноутбук ThinkBook 15 G3 ACL 8 256 ГБ</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>139708493</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/139708493/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>15 6" Notebook Intel Celeron N5095 2 0 GHz 16GB SSD 256Gb</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>149388920</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/149388920/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Ноутбук Pro Fortis M i5 10210U 8Gb SSD512Gb 15.6" W11ProML64</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>146264496</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/146264496/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Ноутбук Pavilion 15-eh2037ci [6M874EA]</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>137855262</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137855262/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Ноутбук 14" EVE C414 A9 9400 4Гб SSD128Гб R5 W10H</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>139752074</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/139752074/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Ноутбук Vivobook Pro15 M6500QC-HN118 [90NB0YN1-M006N0]</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>145279781</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/145279781/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ноутбук EVE 15 P417 15.6" Pentium N5030 8Gb SSD256Gb W11</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>135729672</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135729672/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Ноутбук EVE 14 C414, 14.1", IPS, Celeron N4020 1.1ГГц, 4ГБ</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>119966104</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119966104/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ноутбук TUF Gaming F15 FX506HM-HN016</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>140761329</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/140761329/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ноутбук Predator Triton PT516-52S (NH.QFQER.002)</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>137886708</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137886708/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ноутбук Nitro 5 AN515-45-R5SJ [NH.QBRER.006] R7 noOS</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>104251141</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104251141/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ноутбук IdeaPad 3 15ALC6 (82RN00BJRK)</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>12</v>
+      </c>
+      <c r="D113" t="n">
+        <v>137876974</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137876974/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MacBook Pro 14 M1 Pro 16 512 (Space Grey)</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>149781988</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/149781988/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Ноутбук MateBook D15 [BoM-WDQ9B]</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>135711823</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135711823/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MacBook Pro 14 M1 Pro 16 512 (Silver)</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>149814065</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/149814065/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ноутбук Victus 15-fa0032ci (799A5EA)</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>145288879</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/145288879/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ноутбук Nitro 5 AN515-57</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>139308235</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/139308235/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MacBook Air 13 M2 8 512 (Starlight)</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>149785824</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/149785824/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ноутбук Victus 15-fb0030ci 15.6" 16 GB [6M877EA]</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>135723311</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135723311/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Ноутбук Swift 3 SF314-43 [NX.AB1ER.00E]</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>135936674</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135936674/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ноутбук AZ-1702 17.3" 4x2GHz 12Gb 1Tb</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>147674348</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/147674348/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ноутбук V17-IIL</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>134616135</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/134616135/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ноутбук Aspire A315-34-C34A</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>104180100</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104180100/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MacBook Pro 14 M1 Pro 16 ГБ 512 Гб UK</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>116669072</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/116669072/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Ноутбук NX.EG8ER.010(i3 15,6 1Тб 4Гб UMA noOS)</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>104234467</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104234467/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Ноутбук 14" EVE C414 Celeron N3350 4Гб eMMC128Гб W10HSL</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>135729671</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135729671/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MacBook Pro 13 M1 8 ГБ 256 Гб US (2020)</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>119268350</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119268350/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ноутбук Pavilion 14-dv1005ur 14 i5 16Gb 512Gb [6M869EA]</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>137854242</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137854242/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ноутбук Predator Helios 300 PH315-54 [NH.QC2ER.007]</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>104250423</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104250423/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ноутбук NX.EG9ER.01R(3050U 15,6 1Тб 4Гб UMA noOS)</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>104276165</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104276165/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Ноутбук Victus 16-e1050ci 16.1 FHD RTX 3060 [6M882EA]</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>137865002</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137865002/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ноутбук 15s-fq5045ci 15.6 i5 8Gb 512Gb (6K3C4EA)</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>137868156</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137868156/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MacBook Pro 16 M1 Max 32 1 (Space Grey)</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>142933310</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/142933310/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Ноутбук Pro Fortis M i3 10110U 8Gb SSD512Gb 15.6" W11ProML64</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>146258301</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/146258301/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MacBook Air 13 M2 8 512 (Silver)</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99060313</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/99060313/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Ноутбук Maxbook P1X 512 Gb 12 Gb</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>10</v>
+      </c>
+      <c r="D137" t="n">
+        <v>92107920</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/92107920/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ноутбук IdeaPad 1 14IGL05</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>143778484</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/143778484/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ноутбук Laptop X515JA-BQ2024W [90NB0SR1-M02PX0]</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>138974634</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138974634/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MacBook Pro 16 M1 Max 32 1 (Silver)</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>142935534</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/142935534/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Ноутбук A315-35-P8RP [NX.A6LER.00N] 15.6 noOS</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>104288888</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104288888/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Ноутбук TUF Dash F15 FX517ZM-HN093 [90NR09Q3-M007B0]</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>144678873</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/144678873/detail.aspx</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Ноутбук F415MA-EK647W 14" Pentium Win11</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C143" t="n">
         <v>3</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>138766791</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D143" t="n">
+        <v>138766791</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>https://www.wildberries.ru/catalog/138766791/detail.aspx</t>
         </is>
+      </c>
+      <c r="F143" t="n">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
@@ -456,7 +461,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,10 +472,8 @@
       <c r="C2" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>116872733</t>
-        </is>
+      <c r="D2" t="n">
+        <v>116872733</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -479,7 +482,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,10 +493,8 @@
       <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>127005148</t>
-        </is>
+      <c r="D3" t="n">
+        <v>127005148</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -502,7 +503,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -513,10 +514,8 @@
       <c r="C4" t="n">
         <v>17</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>145448211</t>
-        </is>
+      <c r="D4" t="n">
+        <v>145448211</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -525,7 +524,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,10 +535,8 @@
       <c r="C5" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>137899938</t>
-        </is>
+      <c r="D5" t="n">
+        <v>137899938</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -548,7 +545,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -559,10 +556,8 @@
       <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>123764974</t>
-        </is>
+      <c r="D6" t="n">
+        <v>123764974</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -571,7 +566,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -582,10 +577,8 @@
       <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>113254272</t>
-        </is>
+      <c r="D7" t="n">
+        <v>113254272</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,7 +587,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -605,10 +598,8 @@
       <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>144571274</t>
-        </is>
+      <c r="D8" t="n">
+        <v>144571274</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -617,7 +608,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -628,10 +619,8 @@
       <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>95749440</t>
-        </is>
+      <c r="D9" t="n">
+        <v>95749440</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -640,7 +629,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -651,10 +640,8 @@
       <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>72283730</t>
-        </is>
+      <c r="D10" t="n">
+        <v>72283730</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -663,7 +650,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -674,10 +661,8 @@
       <c r="C11" t="n">
         <v>15</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>114714657</t>
-        </is>
+      <c r="D11" t="n">
+        <v>114714657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -686,7 +671,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -697,10 +682,8 @@
       <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>126920776</t>
-        </is>
+      <c r="D12" t="n">
+        <v>126920776</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -709,7 +692,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,10 +703,8 @@
       <c r="C13" t="n">
         <v>16</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>123832380</t>
-        </is>
+      <c r="D13" t="n">
+        <v>123832380</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -732,7 +713,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -743,10 +724,8 @@
       <c r="C14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>75665277</t>
-        </is>
+      <c r="D14" t="n">
+        <v>75665277</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -755,7 +734,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -766,10 +745,8 @@
       <c r="C15" t="n">
         <v>16</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>141022944</t>
-        </is>
+      <c r="D15" t="n">
+        <v>141022944</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -778,7 +755,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -789,10 +766,8 @@
       <c r="C16" t="n">
         <v>17</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>105851576</t>
-        </is>
+      <c r="D16" t="n">
+        <v>105851576</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -801,7 +776,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -812,10 +787,8 @@
       <c r="C17" t="n">
         <v>13</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>126066982</t>
-        </is>
+      <c r="D17" t="n">
+        <v>126066982</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -824,7 +797,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -835,10 +808,8 @@
       <c r="C18" t="n">
         <v>15</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>67865980</t>
-        </is>
+      <c r="D18" t="n">
+        <v>67865980</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -847,7 +818,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -858,10 +829,8 @@
       <c r="C19" t="n">
         <v>19</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>121026731</t>
-        </is>
+      <c r="D19" t="n">
+        <v>121026731</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -870,7 +839,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -881,10 +850,8 @@
       <c r="C20" t="n">
         <v>20</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>115084670</t>
-        </is>
+      <c r="D20" t="n">
+        <v>115084670</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -893,7 +860,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -904,10 +871,8 @@
       <c r="C21" t="n">
         <v>8</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>137366070</t>
-        </is>
+      <c r="D21" t="n">
+        <v>137366070</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -916,7 +881,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -927,10 +892,8 @@
       <c r="C22" t="n">
         <v>22</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>148468569</t>
-        </is>
+      <c r="D22" t="n">
+        <v>148468569</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -939,7 +902,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -950,10 +913,8 @@
       <c r="C23" t="n">
         <v>8</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>137358498</t>
-        </is>
+      <c r="D23" t="n">
+        <v>137358498</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -962,7 +923,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -973,10 +934,8 @@
       <c r="C24" t="n">
         <v>8</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>137366073</t>
-        </is>
+      <c r="D24" t="n">
+        <v>137366073</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -985,7 +944,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -996,10 +955,8 @@
       <c r="C25" t="n">
         <v>8</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>137359921</t>
-        </is>
+      <c r="D25" t="n">
+        <v>137359921</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1008,7 +965,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1019,10 +976,8 @@
       <c r="C26" t="n">
         <v>22</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>148865032</t>
-        </is>
+      <c r="D26" t="n">
+        <v>148865032</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1031,7 +986,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1042,10 +997,8 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>135608212</t>
-        </is>
+      <c r="D27" t="n">
+        <v>135608212</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1054,7 +1007,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1065,10 +1018,8 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>134165151</t>
-        </is>
+      <c r="D28" t="n">
+        <v>134165151</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1077,7 +1028,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1088,10 +1039,8 @@
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>138568366</t>
-        </is>
+      <c r="D29" t="n">
+        <v>138568366</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1100,7 +1049,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1111,10 +1060,8 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>137881020</t>
-        </is>
+      <c r="D30" t="n">
+        <v>137881020</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1123,7 +1070,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1134,10 +1081,8 @@
       <c r="C31" t="n">
         <v>21</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>143778483</t>
-        </is>
+      <c r="D31" t="n">
+        <v>143778483</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1146,7 +1091,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1157,10 +1102,8 @@
       <c r="C32" t="n">
         <v>2</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>105264437</t>
-        </is>
+      <c r="D32" t="n">
+        <v>105264437</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1169,7 +1112,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1180,10 +1123,8 @@
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>134131268</t>
-        </is>
+      <c r="D33" t="n">
+        <v>134131268</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1192,7 +1133,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1203,10 +1144,8 @@
       <c r="C34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>137884454</t>
-        </is>
+      <c r="D34" t="n">
+        <v>137884454</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1215,7 +1154,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1226,10 +1165,8 @@
       <c r="C35" t="n">
         <v>7</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>146355649</t>
-        </is>
+      <c r="D35" t="n">
+        <v>146355649</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1238,7 +1175,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1249,10 +1186,8 @@
       <c r="C36" t="n">
         <v>3</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>145286466</t>
-        </is>
+      <c r="D36" t="n">
+        <v>145286466</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1261,7 +1196,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1272,10 +1207,8 @@
       <c r="C37" t="n">
         <v>21</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>141117591</t>
-        </is>
+      <c r="D37" t="n">
+        <v>141117591</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1284,7 +1217,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1295,10 +1228,8 @@
       <c r="C38" t="n">
         <v>9</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>137868907</t>
-        </is>
+      <c r="D38" t="n">
+        <v>137868907</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1307,7 +1238,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1318,10 +1249,8 @@
       <c r="C39" t="n">
         <v>12</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>123401708</t>
-        </is>
+      <c r="D39" t="n">
+        <v>123401708</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1330,7 +1259,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1341,10 +1270,8 @@
       <c r="C40" t="n">
         <v>2</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>146572252</t>
-        </is>
+      <c r="D40" t="n">
+        <v>146572252</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1353,7 +1280,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1364,10 +1291,8 @@
       <c r="C41" t="n">
         <v>2</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>146572250</t>
-        </is>
+      <c r="D41" t="n">
+        <v>146572250</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1376,7 +1301,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1387,10 +1312,8 @@
       <c r="C42" t="n">
         <v>1</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>137881294</t>
-        </is>
+      <c r="D42" t="n">
+        <v>137881294</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1399,7 +1322,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1410,10 +1333,8 @@
       <c r="C43" t="n">
         <v>9</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>137865424</t>
-        </is>
+      <c r="D43" t="n">
+        <v>137865424</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1422,7 +1343,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1433,10 +1354,8 @@
       <c r="C44" t="n">
         <v>3</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>145282819</t>
-        </is>
+      <c r="D44" t="n">
+        <v>145282819</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1445,7 +1364,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1456,10 +1375,8 @@
       <c r="C45" t="n">
         <v>4</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>89111071</t>
-        </is>
+      <c r="D45" t="n">
+        <v>89111071</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1468,7 +1385,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1479,10 +1396,8 @@
       <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>134133715</t>
-        </is>
+      <c r="D46" t="n">
+        <v>134133715</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1491,7 +1406,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1502,10 +1417,8 @@
       <c r="C47" t="n">
         <v>2</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>146572255</t>
-        </is>
+      <c r="D47" t="n">
+        <v>146572255</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1514,7 +1427,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1525,10 +1438,8 @@
       <c r="C48" t="n">
         <v>6</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>118989389</t>
-        </is>
+      <c r="D48" t="n">
+        <v>118989389</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1537,7 +1448,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1548,10 +1459,8 @@
       <c r="C49" t="n">
         <v>1</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>135941675</t>
-        </is>
+      <c r="D49" t="n">
+        <v>135941675</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1560,7 +1469,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1571,10 +1480,8 @@
       <c r="C50" t="n">
         <v>9</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>135939866</t>
-        </is>
+      <c r="D50" t="n">
+        <v>135939866</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1583,7 +1490,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1594,10 +1501,8 @@
       <c r="C51" t="n">
         <v>2</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>105264443</t>
-        </is>
+      <c r="D51" t="n">
+        <v>105264443</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1606,7 +1511,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1617,10 +1522,8 @@
       <c r="C52" t="n">
         <v>9</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>137858689</t>
-        </is>
+      <c r="D52" t="n">
+        <v>137858689</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1629,7 +1532,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1640,10 +1543,8 @@
       <c r="C53" t="n">
         <v>21</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>138861242</t>
-        </is>
+      <c r="D53" t="n">
+        <v>138861242</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1652,7 +1553,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1663,10 +1564,8 @@
       <c r="C54" t="n">
         <v>5</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>119897982</t>
-        </is>
+      <c r="D54" t="n">
+        <v>119897982</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1675,7 +1574,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1686,10 +1585,8 @@
       <c r="C55" t="n">
         <v>2</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>146572249</t>
-        </is>
+      <c r="D55" t="n">
+        <v>146572249</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1698,7 +1595,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1709,10 +1606,8 @@
       <c r="C56" t="n">
         <v>3</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>102185254</t>
-        </is>
+      <c r="D56" t="n">
+        <v>102185254</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1721,7 +1616,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1732,10 +1627,8 @@
       <c r="C57" t="n">
         <v>7</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>139011609</t>
-        </is>
+      <c r="D57" t="n">
+        <v>139011609</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1744,7 +1637,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1755,10 +1648,8 @@
       <c r="C58" t="n">
         <v>3</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>126815382</t>
-        </is>
+      <c r="D58" t="n">
+        <v>126815382</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1767,7 +1658,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1778,10 +1669,8 @@
       <c r="C59" t="n">
         <v>1</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>137880348</t>
-        </is>
+      <c r="D59" t="n">
+        <v>137880348</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1790,7 +1679,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1801,10 +1690,8 @@
       <c r="C60" t="n">
         <v>1</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>104211411</t>
-        </is>
+      <c r="D60" t="n">
+        <v>104211411</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1813,7 +1700,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1824,10 +1711,8 @@
       <c r="C61" t="n">
         <v>2</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>105264439</t>
-        </is>
+      <c r="D61" t="n">
+        <v>105264439</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1836,7 +1721,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1847,10 +1732,8 @@
       <c r="C62" t="n">
         <v>3</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>138753128</t>
-        </is>
+      <c r="D62" t="n">
+        <v>138753128</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1859,7 +1742,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -1870,10 +1753,8 @@
       <c r="C63" t="n">
         <v>9</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>137859925</t>
-        </is>
+      <c r="D63" t="n">
+        <v>137859925</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1882,7 +1763,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -1893,10 +1774,8 @@
       <c r="C64" t="n">
         <v>9</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>137866239</t>
-        </is>
+      <c r="D64" t="n">
+        <v>137866239</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1905,7 +1784,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -1916,10 +1795,8 @@
       <c r="C65" t="n">
         <v>3</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>144667160</t>
-        </is>
+      <c r="D65" t="n">
+        <v>144667160</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1928,7 +1805,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -1939,10 +1816,8 @@
       <c r="C66" t="n">
         <v>3</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>145285910</t>
-        </is>
+      <c r="D66" t="n">
+        <v>145285910</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1951,7 +1826,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -1962,10 +1837,8 @@
       <c r="C67" t="n">
         <v>5</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>145954581</t>
-        </is>
+      <c r="D67" t="n">
+        <v>145954581</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1974,7 +1847,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -1985,10 +1858,8 @@
       <c r="C68" t="n">
         <v>7</v>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>139308229</t>
-        </is>
+      <c r="D68" t="n">
+        <v>139308229</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1997,7 +1868,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2008,10 +1879,8 @@
       <c r="C69" t="n">
         <v>2</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>142935043</t>
-        </is>
+      <c r="D69" t="n">
+        <v>142935043</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2020,7 +1889,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2031,10 +1900,8 @@
       <c r="C70" t="n">
         <v>5</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>135729670</t>
-        </is>
+      <c r="D70" t="n">
+        <v>135729670</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2043,7 +1910,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2054,10 +1921,8 @@
       <c r="C71" t="n">
         <v>1</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>104148457</t>
-        </is>
+      <c r="D71" t="n">
+        <v>104148457</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2066,7 +1931,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2077,10 +1942,8 @@
       <c r="C72" t="n">
         <v>9</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>137863650</t>
-        </is>
+      <c r="D72" t="n">
+        <v>137863650</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2089,7 +1952,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2100,10 +1963,8 @@
       <c r="C73" t="n">
         <v>21</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>137869970</t>
-        </is>
+      <c r="D73" t="n">
+        <v>137869970</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2112,7 +1973,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2123,10 +1984,8 @@
       <c r="C74" t="n">
         <v>21</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>135946842</t>
-        </is>
+      <c r="D74" t="n">
+        <v>135946842</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2135,7 +1994,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2146,10 +2005,8 @@
       <c r="C75" t="n">
         <v>1</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>137885951</t>
-        </is>
+      <c r="D75" t="n">
+        <v>137885951</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2158,7 +2015,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2169,10 +2026,8 @@
       <c r="C76" t="n">
         <v>21</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>138860807</t>
-        </is>
+      <c r="D76" t="n">
+        <v>138860807</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2181,7 +2036,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2192,10 +2047,8 @@
       <c r="C77" t="n">
         <v>21</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>139708493</t>
-        </is>
+      <c r="D77" t="n">
+        <v>139708493</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2204,7 +2057,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2215,10 +2068,8 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>149388920</t>
-        </is>
+      <c r="D78" t="n">
+        <v>149388920</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2227,7 +2078,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2238,10 +2089,8 @@
       <c r="C79" t="n">
         <v>5</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>146264496</t>
-        </is>
+      <c r="D79" t="n">
+        <v>146264496</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2250,7 +2099,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2261,10 +2110,8 @@
       <c r="C80" t="n">
         <v>9</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>137855262</t>
-        </is>
+      <c r="D80" t="n">
+        <v>137855262</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2273,7 +2120,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2284,10 +2131,8 @@
       <c r="C81" t="n">
         <v>5</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>139752074</t>
-        </is>
+      <c r="D81" t="n">
+        <v>139752074</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2296,7 +2141,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2307,10 +2152,8 @@
       <c r="C82" t="n">
         <v>3</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>145279781</t>
-        </is>
+      <c r="D82" t="n">
+        <v>145279781</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2319,7 +2162,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2330,10 +2173,8 @@
       <c r="C83" t="n">
         <v>5</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>135729672</t>
-        </is>
+      <c r="D83" t="n">
+        <v>135729672</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2342,7 +2183,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2353,10 +2194,8 @@
       <c r="C84" t="n">
         <v>5</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>119966104</t>
-        </is>
+      <c r="D84" t="n">
+        <v>119966104</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2365,7 +2204,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2376,10 +2215,8 @@
       <c r="C85" t="n">
         <v>3</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>140761329</t>
-        </is>
+      <c r="D85" t="n">
+        <v>140761329</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2388,7 +2225,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2399,10 +2236,8 @@
       <c r="C86" t="n">
         <v>1</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>137886708</t>
-        </is>
+      <c r="D86" t="n">
+        <v>137886708</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2411,7 +2246,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2422,10 +2257,8 @@
       <c r="C87" t="n">
         <v>1</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>104251141</t>
-        </is>
+      <c r="D87" t="n">
+        <v>104251141</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2434,7 +2267,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2445,10 +2278,8 @@
       <c r="C88" t="n">
         <v>21</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>137876974</t>
-        </is>
+      <c r="D88" t="n">
+        <v>137876974</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2457,7 +2288,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2468,10 +2299,8 @@
       <c r="C89" t="n">
         <v>2</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>149781988</t>
-        </is>
+      <c r="D89" t="n">
+        <v>149781988</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2480,7 +2309,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2491,10 +2320,8 @@
       <c r="C90" t="n">
         <v>10</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>135711823</t>
-        </is>
+      <c r="D90" t="n">
+        <v>135711823</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2503,7 +2330,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2514,10 +2341,8 @@
       <c r="C91" t="n">
         <v>2</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>149814065</t>
-        </is>
+      <c r="D91" t="n">
+        <v>149814065</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2526,7 +2351,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2537,10 +2362,8 @@
       <c r="C92" t="n">
         <v>9</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>145288879</t>
-        </is>
+      <c r="D92" t="n">
+        <v>145288879</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2549,7 +2372,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2560,10 +2383,8 @@
       <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>139308235</t>
-        </is>
+      <c r="D93" t="n">
+        <v>139308235</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2572,7 +2393,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2583,10 +2404,8 @@
       <c r="C94" t="n">
         <v>2</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>149785824</t>
-        </is>
+      <c r="D94" t="n">
+        <v>149785824</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2595,7 +2414,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2606,10 +2425,8 @@
       <c r="C95" t="n">
         <v>9</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>135723311</t>
-        </is>
+      <c r="D95" t="n">
+        <v>135723311</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2618,7 +2435,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2629,10 +2446,8 @@
       <c r="C96" t="n">
         <v>1</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>135936674</t>
-        </is>
+      <c r="D96" t="n">
+        <v>135936674</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2641,7 +2456,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2652,10 +2467,8 @@
       <c r="C97" t="n">
         <v>4</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>147674348</t>
-        </is>
+      <c r="D97" t="n">
+        <v>147674348</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2664,7 +2477,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2675,10 +2488,8 @@
       <c r="C98" t="n">
         <v>21</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>134616135</t>
-        </is>
+      <c r="D98" t="n">
+        <v>134616135</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2687,7 +2498,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2698,10 +2509,8 @@
       <c r="C99" t="n">
         <v>1</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>104180100</t>
-        </is>
+      <c r="D99" t="n">
+        <v>104180100</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2710,7 +2519,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2721,10 +2530,8 @@
       <c r="C100" t="n">
         <v>2</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>116669072</t>
-        </is>
+      <c r="D100" t="n">
+        <v>116669072</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2733,7 +2540,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2744,10 +2551,8 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>104234467</t>
-        </is>
+      <c r="D101" t="n">
+        <v>104234467</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2756,7 +2561,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2767,10 +2572,8 @@
       <c r="C102" t="n">
         <v>5</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>135729671</t>
-        </is>
+      <c r="D102" t="n">
+        <v>135729671</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2779,7 +2582,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -2790,10 +2593,8 @@
       <c r="C103" t="n">
         <v>2</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>119268350</t>
-        </is>
+      <c r="D103" t="n">
+        <v>119268350</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2802,7 +2603,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2813,10 +2614,8 @@
       <c r="C104" t="n">
         <v>9</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>137854242</t>
-        </is>
+      <c r="D104" t="n">
+        <v>137854242</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2825,7 +2624,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -2836,10 +2635,8 @@
       <c r="C105" t="n">
         <v>1</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>104250423</t>
-        </is>
+      <c r="D105" t="n">
+        <v>104250423</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2848,7 +2645,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2859,10 +2656,8 @@
       <c r="C106" t="n">
         <v>1</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>104276165</t>
-        </is>
+      <c r="D106" t="n">
+        <v>104276165</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2871,7 +2666,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2882,10 +2677,8 @@
       <c r="C107" t="n">
         <v>9</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>137865002</t>
-        </is>
+      <c r="D107" t="n">
+        <v>137865002</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2894,7 +2687,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2905,10 +2698,8 @@
       <c r="C108" t="n">
         <v>9</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>137868156</t>
-        </is>
+      <c r="D108" t="n">
+        <v>137868156</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2917,7 +2708,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -2928,10 +2719,8 @@
       <c r="C109" t="n">
         <v>2</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>142933310</t>
-        </is>
+      <c r="D109" t="n">
+        <v>142933310</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2940,7 +2729,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2951,10 +2740,8 @@
       <c r="C110" t="n">
         <v>5</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>146258301</t>
-        </is>
+      <c r="D110" t="n">
+        <v>146258301</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2963,7 +2750,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2974,10 +2761,8 @@
       <c r="C111" t="n">
         <v>2</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>99060313</t>
-        </is>
+      <c r="D111" t="n">
+        <v>99060313</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2986,7 +2771,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2997,10 +2782,8 @@
       <c r="C112" t="n">
         <v>11</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>92107920</t>
-        </is>
+      <c r="D112" t="n">
+        <v>92107920</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3009,7 +2792,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -3020,10 +2803,8 @@
       <c r="C113" t="n">
         <v>21</v>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>143778484</t>
-        </is>
+      <c r="D113" t="n">
+        <v>143778484</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3032,7 +2813,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -3043,10 +2824,8 @@
       <c r="C114" t="n">
         <v>3</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>138974634</t>
-        </is>
+      <c r="D114" t="n">
+        <v>138974634</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3055,7 +2834,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -3066,10 +2845,8 @@
       <c r="C115" t="n">
         <v>2</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>142935534</t>
-        </is>
+      <c r="D115" t="n">
+        <v>142935534</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3078,7 +2855,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -3089,10 +2866,8 @@
       <c r="C116" t="n">
         <v>1</v>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>104288888</t>
-        </is>
+      <c r="D116" t="n">
+        <v>104288888</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3101,7 +2876,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -3112,10 +2887,8 @@
       <c r="C117" t="n">
         <v>3</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>144678873</t>
-        </is>
+      <c r="D117" t="n">
+        <v>144678873</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3124,7 +2897,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -3135,14 +2908,2519 @@
       <c r="C118" t="n">
         <v>3</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>138766791</t>
-        </is>
+      <c r="D118" t="n">
+        <v>138766791</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>https://www.wildberries.ru/catalog/138766791/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Умные смарт часы Smart Watch X8 plus Ultra</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A-Watch</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>139323105</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/139323105/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Смарт часы умные Watch 8 ultra</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Unique Combination</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>154826017</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/154826017/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Фитнес-браслет Mi Band 7</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>97717203</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/97717203/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Смарт часы мужские умные часы женские smart watch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ArkTech</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>123463850</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/123463850/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Часы A-Watch</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>100157271</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/100157271/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A-Watch</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>122404984</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/122404984/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SmartSale</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>94731471</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/94731471/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Смарт часы с сенсорным экраном MK20</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AYD's</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>39867753</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/39867753/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Смарт часы x8 pro</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SMARTEXPERT</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>94879298</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/94879298/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Смарт часы,2 ремешка нейлон+силикон Умные часы Smart Watch</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>KUPLACE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>111599100</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/111599100/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Фитнес-браслет Mi Band 6</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>26414401</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/26414401/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Смарт часы умные фитнес браслет женские мужские спортивные</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Smartx</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>119529324</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119529324/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A-Watch</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>124366343</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/124366343/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Часы Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Smart King</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>119203059</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119203059/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские детски Smart Watch Наручные</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>143864973</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/143864973/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Smart Watch</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>12_SOV</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>61533640</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/61533640/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 серий умные watch</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AKENZY electronics</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>120287837</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/120287837/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 серии Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>8watch</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>57444002</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/57444002/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Умные смарт часы телефон</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Хороший выбор</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>57807948</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/57807948/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Смарт часы умные smart watch детские Фитнес браслет</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SmartGriga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>104834840</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/104834840/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Часы Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Smart King</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>119203062</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119203062/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Умные смарт часы смарт фитнес круглые мужские Ultra</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Agavard</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>122543136</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/122543136/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Watch8</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SmartLux</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>48303144</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/48303144/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Смарт часы в наборе "6 в 1" для IPhone и Android</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>154475919</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/154475919/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Смарт-часы DT70 + Plus водонепроницаемые</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Смарт Маркет</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>158214913</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/158214913/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Умные смарт часы Smаrt Watch 8</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Smart Watch</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>40761332</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/40761332/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Смарт часы Watch 8, черные</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>B&amp;Y devices</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>138674545</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138674545/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Часы Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Smart King</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>119203057</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119203057/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Фитнес браслет M7 оригинал, умные смарт часы</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>FUJI Electronics</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>92794906</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/92794906/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Galaxy Watch5 Pro</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>135709328</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/135709328/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Смарт часы умные фитнес браслет женские</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Smartx</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>117652406</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/117652406/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SmartSale</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>94731807</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/94731807/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Умные часы HUAWEIGT 3 PRO, белый</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>121010247</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/121010247/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SmartSale</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>94731737</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/94731737/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Фитнес-браслет Mi Smart Band 7</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>132710585</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/132710585/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Smart Watch</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>12_SOV</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>76654883</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/76654883/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Watch 8 ultra</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Unique Combination</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>139225178</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/139225178/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 серии</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SMARTEXPERT</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>122908360</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/122908360/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Часы Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Smart King</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>119203060</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119203060/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Умные часы WATCH 3 PRO GALILEO-L40E</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>65794292</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/65794292/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Смарт часы мужские умные часы женские smart watch</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ArkTech</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>123463549</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/123463549/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Умные смарт часы HW8 max 8 серии</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>L PRO</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>155448095</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/155448095/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Smart Watch</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>12_SOV</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>61267296</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/61267296/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Смарт часы x8 pro</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SMARTEXPERT</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>141256285</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/141256285/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские детски Smart Watch Наручные</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>122927359</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/122927359/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Watch8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SmartLux</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>48303535</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/48303535/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Smart Watch</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>12_SOV</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>61533220</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/61533220/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские фитнес</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Pushka Shop</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>77646263</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/77646263/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские фитнес Smart Watch Наручные</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>151802906</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/151802906/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Смарт часы умные женские мужские Smart Whatch</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Smartx</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>66820515</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/66820515/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Смарт часы, фитнес браслет, умные часы</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ARRIS</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>46018087</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/46018087/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SmartSale</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>90291981</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/90291981/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Смарт часы Smart Watch</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Pushka Shop</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>77645586</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/77645586/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Смарт часы x8 pro Smart Watch</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SMARTEXPERT</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>125470578</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/125470578/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские фитнес</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>i-Smart</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>73076273</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/73076273/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Смарт часы Watch 8, серебристые</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>B&amp;Y devices</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>138674546</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138674546/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Умные смарт часы женские наручные круглые smart браслет</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DAVLETSHOP</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>138750378</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138750378/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Смарт часы Watch 8, золотые</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>B&amp;Y devices</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>138674543</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138674543/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Смарт-часы Galaxy Watch 5 40 мм</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>143252393</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/143252393/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские детски Smart Watch Наручные</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>152612912</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/152612912/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple watch 42 44 45 49 mm</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>16429349</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/16429349/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Умные смарт часы женские круглые наручные фитнес браслет</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ELSERA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>117650106</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/117650106/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Смарт часы умные фитнес браслет женские мужские спортивные</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SmartX Store</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>59801844</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/59801844/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Смарт часы Smart Watch</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Pushka Shop</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>77632449</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/77632449/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Смарт часы, фитнес браслет, умные часы</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ARRIS</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>87289547</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/87289547/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Часы Smart Watch</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>New Evolution</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>132442861</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/132442861/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Смарт часы наручные Watch 8</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SmartFox</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>52232480</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/52232480/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Смарт часы A2166 GTR 4</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Amazfit</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>120848964</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/120848964/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 серии Smart Watch 8</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>8watch</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>57444003</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/57444003/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Смарт часы watch женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Smart Times</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>119993473</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119993473/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Смарт часы Watch 8, розовые</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>B&amp;Y devices</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>138674544</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138674544/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Смарт часы watch женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Smart Times</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>119993474</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119993474/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Смарт часы с измерением давления, шагомер, трекер для фитнес…</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>REDSEN</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>70452975</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/70452975/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Смарт часы женские наручные электронные умные smart watch</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>WatchMe</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>142729489</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/142729489/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 серий умные watch</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>AKENZY electronics</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>100199486</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/100199486/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SmartSale</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>90291991</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/90291991/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Универсальный ремешок для часов 22 мм</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>43917992</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/43917992/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple Watch 38 40 41 мм</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>14377462</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/14377462/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские Watch8</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SmartLux</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>62955817</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/62955817/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Смарт часы watch женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Smart Times</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>119993472</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119993472/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские фитнес Smart Watch Наручные</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>147418836</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/147418836/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 серии</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>MOZAIKA Store</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>137659229</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/137659229/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple Watch 38 40 41 мм</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>14057931</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/14057931/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple Watch 38 40 41 мм</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>15843704</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/15843704/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Смарт-часы A2168 GTS 4</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Amazfit</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>120849251</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/120849251/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Смарт часы мужские женские умные smart</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Smart Watch</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>94481215</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/94481215/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Смарт часы детские умные наручные с камерой GPS и сим картой</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ELSERA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>144450375</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/144450375/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Смарт часы watch женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Smart Times</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>119993470</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/119993470/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Смарт часы женские круглые</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Smart Watch</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>146817733</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/146817733/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple watch 42 44 45 49 mm</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>16429348</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/16429348/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Умные смарт часы женские наручные круглые smart браслет</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>DAVLETSHOP</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>138750377</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/138750377/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Смарт часы мужские женские умные</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Smart Watch</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>143927212</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/143927212/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские умные</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SmartSale</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>94731893</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/94731893/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple watch 42 44 45 49 mm</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>14057934</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/14057934/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Смарт часы 8 pro женские мужские наручные умные Watch</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>PV-SMART</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>140340823</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/140340823/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Смарт часы</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Dreamx electronic</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>40298986</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/40298986/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Смарт часы женские мужские Наручные Smart Watch</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Smartx</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>75052004</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/75052004/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Умные смарт часы мужские круглые наручные фитнес браслет</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ELSERA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>146396481</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/146396481/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Смарт часы детские умные наручные с камерой GPS и сим картой</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ELSERA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>144450377</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/144450377/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские фитнес</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>i-Smart</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>73089792</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/73089792/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple watch 38 40 41 мм</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>16429346</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/16429346/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Умные смарт часы женские круглые наручные фитнес браслет</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ELSERA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>117650105</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/117650105/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Смарт часы A2166 GTR 4</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Amazfit</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>120848965</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/120848965/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Ремешок для Apple watch 38 40 41 мм</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>19109207</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/19109207/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Умные смарт часы женские наручные круглые smart браслет</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DAVLETSHOP</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>142294116</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/142294116/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Умные смарт часы smart watch мужские женские фитнес браслет</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ELSERA</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>133623724</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/133623724/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Умные смарт часы</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Dreamx electronic</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>50973613</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/50973613/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Смарт часы Фитнес браслет Умные</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>KONFULON Toko</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>110354345</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/110354345/detail.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Смарт часы умные мужские женские фитнес</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>i-Smart</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>72958405</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/72958405/detail.aspx</t>
         </is>
       </c>
     </row>
